--- a/7832.T.xlsx
+++ b/7832.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7973A83-608B-434C-B62A-205B29817CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E06002-0148-485A-9EAD-B22030B71737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{04A337D8-C63F-4CDB-9F51-6F153243021C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{04A337D8-C63F-4CDB-9F51-6F153243021C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,12 +151,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -167,12 +165,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ariaö"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Ariaö"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Ariaö"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Ariaö"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,16 +216,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,138 +570,142 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>5241</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>654.233563</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f>+I2*I3</f>
         <v>3428838.103683</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6">
         <v>45808</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>321868</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>+I4-I5+I6</f>
         <v>3106970.103683</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -692,62 +722,63 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>660.13186099999996</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>654.233653</v>
       </c>
     </row>
